--- a/a.xlsx
+++ b/a.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,15 +117,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -178,8 +169,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,7 +486,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>12</v>
       </c>
     </row>
@@ -503,72 +494,72 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>12</v>
+      <c r="B2" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>12</v>
+      <c r="B3" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>12</v>
+      <c r="B4" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>12</v>
+      <c r="B5" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>12</v>
+      <c r="B7" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>12</v>
+      <c r="B8" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>12</v>
+      <c r="B9" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>12</v>
+      <c r="B10" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
@@ -587,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -622,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -630,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -638,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -646,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -654,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -662,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -670,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -678,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -686,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -694,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -702,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -710,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
